--- a/Documentación/Psp's/Alejandro/Class Alumno/Plan Summary.xlsx
+++ b/Documentación/Psp's/Alejandro/Class Alumno/Plan Summary.xlsx
@@ -19,13 +19,13 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" odcFile="C:\Users\Alejandro\Downloads\excel.iqy" name="excel" type="4" refreshedVersion="4" background="1" saveData="1">
-    <webPr consecutive="1" xl2000="1" url="http://localhost:2469/reports/form2html.class?uri=%2FSIGERA_CONTROL%2BESCOLAR%2FClass%2BAlumno%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fsection%3D102%26frame%3Dcontent&amp;EXPORT=excel" htmlFormat="all"/>
+    <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FSIGERA_CONTROL%2BESCOLAR%2FClass%2BAlumno%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fsection%3D102%26frame%3Dcontent&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>/SIGERA_CONTROL ESCOLAR/Class Alumno</t>
   </si>
@@ -69,15 +69,15 @@
     <t>Test Defects/KLOC or equivalent</t>
   </si>
   <si>
+    <t>Total Defects/KLOC or equivalent</t>
+  </si>
+  <si>
+    <t>Yield %</t>
+  </si>
+  <si>
     <t>#DIV/0!</t>
   </si>
   <si>
-    <t>Total Defects/KLOC or equivalent</t>
-  </si>
-  <si>
-    <t>Yield %</t>
-  </si>
-  <si>
     <t>Code Review Rate</t>
   </si>
   <si>
@@ -96,7 +96,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 12:33 PM el 3/12/2018</t>
+    <t>Reporte generado a las 12:20 PM el 5/12/2018</t>
   </si>
 </sst>
 </file>
@@ -682,10 +682,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1046,7 +1046,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
   </cols>
@@ -1097,10 +1097,10 @@
         <v>39</v>
       </c>
       <c r="C8" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="7">
-        <v>37.200000000000003</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="10">
-        <v>8.3333333333333329E-2</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D10" s="10">
-        <v>0.10416666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,8 +1169,8 @@
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
+      <c r="B14" s="8">
+        <v>0</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1181,30 +1181,30 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
+      <c r="D16" s="12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,41 +1212,41 @@
         <v>17</v>
       </c>
       <c r="B17" s="8">
-        <v>468</v>
+        <v>390</v>
       </c>
       <c r="C17" s="7">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D17" s="7">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C18" s="15">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D18" s="14">
-        <v>0.22700000000000001</v>
+      <c r="D18" s="15">
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="15">
-        <v>6.6699999999999995E-2</v>
+      <c r="B19" s="14">
+        <v>0.151</v>
       </c>
       <c r="C19" s="12">
         <v>0.1</v>
       </c>
-      <c r="D19" s="14">
-        <v>7.3300000000000004E-2</v>
+      <c r="D19" s="15">
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,13 +1254,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="8">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="C20" s="7">
         <v>3.33</v>
       </c>
       <c r="D20" s="7">
-        <v>3.09</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C21" s="7">
         <v>0.2</v>
